--- a/Daisy-xls/ResearchPages/English/_ContentIDs.xlsx
+++ b/Daisy-xls/ResearchPages/English/_ContentIDs.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Content IDs" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1011">
   <si>
     <t>Content ID</t>
   </si>
@@ -2867,6 +2867,366 @@
   </si>
   <si>
     <t>NCI-Update</t>
+  </si>
+  <si>
+    <t>cancertopic-research</t>
+  </si>
+  <si>
+    <t>immune-based-cancer-treatment-shows-signs-of-progress</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/</t>
+  </si>
+  <si>
+    <t>Complex Immune-Based Cancer Treatment Shows Signs of Progress[#8714]</t>
+  </si>
+  <si>
+    <t>biology-of-cancers-in-aya</t>
+  </si>
+  <si>
+    <t>Uncovering the Biology of Cancers in Adolescents and Young Adults[#9574]</t>
+  </si>
+  <si>
+    <t>palliative-care-making-gains</t>
+  </si>
+  <si>
+    <t>Growing Pains: Palliative Care Making Gains[#3077]</t>
+  </si>
+  <si>
+    <t>training-providers-and-patients-to-talk-about-end-of-life-care</t>
+  </si>
+  <si>
+    <t>Training Providers and Patients to Talk about End-of-Life Care[#1939]</t>
+  </si>
+  <si>
+    <t>end-of-life-care-discussions</t>
+  </si>
+  <si>
+    <t>Study Shows Importance of Early End-of-Life Care Discussions[#4072]</t>
+  </si>
+  <si>
+    <t>dietrecs</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2013/</t>
+  </si>
+  <si>
+    <t>More Research Is Needed on What Patients Being Treated for Cancer Should Eat[#8127]</t>
+  </si>
+  <si>
+    <t>cancer-health-disparities</t>
+  </si>
+  <si>
+    <t>Tackling Cancer Health Disparities: Small Steps, Big Hopes[#1039]</t>
+  </si>
+  <si>
+    <t>diet-and-cancer-QandA</t>
+  </si>
+  <si>
+    <t>A Conversation with Dr. Walter Willett about Diet and Cancer[#2110]</t>
+  </si>
+  <si>
+    <t>follow-up-for-long-term-survivors</t>
+  </si>
+  <si>
+    <t>A New Cancer Specialty: Follow-Up for Long-Term Survivors[#5690]</t>
+  </si>
+  <si>
+    <t>dietary-supplements-and-cancer-treatment</t>
+  </si>
+  <si>
+    <t>Dietary Supplements and Cancer Treatment: A Risky Mixture[#1611]</t>
+  </si>
+  <si>
+    <t>obesity-and-cancer-risk</t>
+  </si>
+  <si>
+    <t>Uncovering the Mechanisms Linking Obesity and Cancer Risk[#1834]</t>
+  </si>
+  <si>
+    <t>model-benefits-of-cancer-screening</t>
+  </si>
+  <si>
+    <t>Using an Ocean of Data, Researchers Model Real-Life Benefits of Cancer Screening[#6771]</t>
+  </si>
+  <si>
+    <t>overcoming-bottlenecks-in-clinical-communication</t>
+  </si>
+  <si>
+    <t>Talking About Trials: Overcoming Bottlenecks in Clinical Communication[#4653]</t>
+  </si>
+  <si>
+    <t>questions-to-ask-about-screening</t>
+  </si>
+  <si>
+    <t>Questions to Ask Your Doctor about Cancer Screening[#2445]</t>
+  </si>
+  <si>
+    <t>debate-over-using-placebos-in-cancer-clinical-trials</t>
+  </si>
+  <si>
+    <t>Design Dilemma: The Debate over Using Placebos in Cancer Clinical Trials[#4687]</t>
+  </si>
+  <si>
+    <t>benefits-harms-psa</t>
+  </si>
+  <si>
+    <t>Infographic: Benefits and Harms of PSA Screening for Prostate Cancer[#4685]</t>
+  </si>
+  <si>
+    <t>clinical-trials-offer-path-to-better-care-for-ayas</t>
+  </si>
+  <si>
+    <t>Clinical Trials Offer a Path to Better Care for AYAs with Cancer[#1733]</t>
+  </si>
+  <si>
+    <t>downside-of-diagnostic-imaging</t>
+  </si>
+  <si>
+    <t>The Downside of Diagnostic Imaging[#5841]</t>
+  </si>
+  <si>
+    <t>proton-therapy</t>
+  </si>
+  <si>
+    <t>Proton Therapy for Cancer[#6692]</t>
+  </si>
+  <si>
+    <t>hpv-vaccines-prove-effective</t>
+  </si>
+  <si>
+    <t>Despite Early Skepticism, HPV Vaccines Prove Effective[#4710]</t>
+  </si>
+  <si>
+    <t>reducing-radiation-exposure</t>
+  </si>
+  <si>
+    <t>Radically Reducing Radiation Exposure during Routine Medical Imaging[#3825]</t>
+  </si>
+  <si>
+    <t>fda-approves-therapeutic-cancer-vaccine</t>
+  </si>
+  <si>
+    <t>FDA Approves First Therapeutic Cancer Vaccine[#7851]</t>
+  </si>
+  <si>
+    <t>cell-phone-use_QandA</t>
+  </si>
+  <si>
+    <t>A Conversation with Dr. Martha Linet about Cell Phone Use and Cancer Risk[#3620]</t>
+  </si>
+  <si>
+    <t>psychosocial-challenges-of-cancer</t>
+  </si>
+  <si>
+    <t>AYAs Are Not Alone: Confronting Psychosocial Challenges of Cancer[#6976]</t>
+  </si>
+  <si>
+    <t>immune-cells-to-treat-cancer</t>
+  </si>
+  <si>
+    <t>A Transfer of Power: Harnessing Patients' Immune Cells to Treat Their Cancer[#5158]</t>
+  </si>
+  <si>
+    <t>MEK</t>
+  </si>
+  <si>
+    <t>MEK: A Single Drug Target Shows Promise in Multiple Cancers[#8962]</t>
+  </si>
+  <si>
+    <t>metformin</t>
+  </si>
+  <si>
+    <t>Metformin: Can a Diabetes Drug Help Prevent Cancer?[#8041]</t>
+  </si>
+  <si>
+    <t>focusing-on-older-cancer-patients</t>
+  </si>
+  <si>
+    <t>Focusing on Older Cancer Patients: A Clinical Need and a Research Necessity[#5347]</t>
+  </si>
+  <si>
+    <t>lymphedema-after-cancer</t>
+  </si>
+  <si>
+    <t>Lymphedema After Cancer: How Serious Is It?[#3006]</t>
+  </si>
+  <si>
+    <t>possible-mechanisms-for-chemobrain</t>
+  </si>
+  <si>
+    <t>Delving Into Possible Mechanisms for Chemobrain[#8236]</t>
+  </si>
+  <si>
+    <t>communicating-about-cancer-pain</t>
+  </si>
+  <si>
+    <t>Communicating about Cancer Pain[#9143]</t>
+  </si>
+  <si>
+    <t>advanced-melanoma-therapies</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2014/</t>
+  </si>
+  <si>
+    <t>New Therapies Are Changing the Outlook for Advanced Melanoma[#8699]</t>
+  </si>
+  <si>
+    <t>observation-for-men-with-prostate-cancer</t>
+  </si>
+  <si>
+    <t>Observation as Good as Surgery for Some Men with Prostate Cancer[#7198]</t>
+  </si>
+  <si>
+    <t>cancer-pain-helping-patients</t>
+  </si>
+  <si>
+    <t>Cancer Pain: Helping Patients Help Themselves[#3163]</t>
+  </si>
+  <si>
+    <t>young-cancer-survivors-take-part-in-oncofertility-research</t>
+  </si>
+  <si>
+    <t>So Others May Benefit: Young Cancer Patients and Survivors Take Part in Oncofertility Research[#2600]</t>
+  </si>
+  <si>
+    <t>preserving-fertility-while-battling-cancer</t>
+  </si>
+  <si>
+    <t>Preserving Fertility While Battling Cancer[#7309]</t>
+  </si>
+  <si>
+    <t>fertility-still-possible-for-male-cancer-survivors</t>
+  </si>
+  <si>
+    <t>Fertility Still Possible for Many Male Cancer Survivors, Study Finds[#1734]</t>
+  </si>
+  <si>
+    <t>helping-cancer-survivors-achieve-a-healthy-weight</t>
+  </si>
+  <si>
+    <t>The Right Balance: Helping Cancer Survivors Achieve a Healthy Weight[#1156]</t>
+  </si>
+  <si>
+    <t>cachexia-in-cancer</t>
+  </si>
+  <si>
+    <t>Tackling the Conundrum of Cachexia in Cancer[#3708]</t>
+  </si>
+  <si>
+    <t>chemotherapy-induced-peripheral-neuropathy</t>
+  </si>
+  <si>
+    <t>Chemotherapy-Induced Peripheral Neuropathy[#4380]</t>
+  </si>
+  <si>
+    <t>growing-role-of-palliative-care-q-and-a</t>
+  </si>
+  <si>
+    <t>A Conversation with Dr. Thomas Smith about Palliative Care for Patients with Cancer[#9686]</t>
+  </si>
+  <si>
+    <t>future-of-cancer-screening</t>
+  </si>
+  <si>
+    <t>All That Glitters: A Glimpse into the Future of Cancer Screening[#8530]</t>
+  </si>
+  <si>
+    <t>building-a-better-cancer-screening-process</t>
+  </si>
+  <si>
+    <t>Building a Better Cancer Screening Process[#7947]</t>
+  </si>
+  <si>
+    <t>cancer-survivorship-plans-slow-to-take-hold</t>
+  </si>
+  <si>
+    <t>A Tough Transition: Cancer Survivorship Plans Slow to Take Hold[#4188]</t>
+  </si>
+  <si>
+    <t>investigating-nature-drug-development</t>
+  </si>
+  <si>
+    <t>Investigating Nature's Mysteries for Drug Development[#9223]</t>
+  </si>
+  <si>
+    <t>biological-activity-of-natural-products</t>
+  </si>
+  <si>
+    <t>Harnessing the Biological Activity of Natural Products[#6585]</t>
+  </si>
+  <si>
+    <t>many-survivors-of-aya-cancers-have-chronic-health-problems</t>
+  </si>
+  <si>
+    <t>Many Survivors of Adolescent and Young Adult Cancers Have Chronic Health Problems, Unhealthy Behaviors[#1945]</t>
+  </si>
+  <si>
+    <t>cardiac-tumors</t>
+  </si>
+  <si>
+    <t>Matters of the Heart: Why Are Cardiac Tumors So Rare?[#2477]</t>
+  </si>
+  <si>
+    <t>aiding-cancer-caregivers</t>
+  </si>
+  <si>
+    <t>Helping the Helpers: Aiding Cancer Caregivers[#9251]</t>
+  </si>
+  <si>
+    <t>patient-navigation-and-nurses</t>
+  </si>
+  <si>
+    <t>As Patient Navigation Expands and Evolves, Nurses Assume Many Roles[#3100]</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>No Easy Answers about Whether Aspirin Lowers Cancer Risk[#3879]</t>
+  </si>
+  <si>
+    <t>overcoming-age-limits-in-cancer-clinical-trials</t>
+  </si>
+  <si>
+    <t>Overcoming Age Limits in Cancer Clinical Trials[#5386]</t>
+  </si>
+  <si>
+    <t>CAR-T-Cells</t>
+  </si>
+  <si>
+    <t>CAR T-Cell Therapy: Engineering Patients? Immune Cells to Treat Their Cancers[#4333]</t>
+  </si>
+  <si>
+    <t>late-effects-pose-lasting-problems-for-young-cancer-survivors</t>
+  </si>
+  <si>
+    <t>For Many Young Cancer Survivors, Late Effects Pose Lasting Problems[#9913]</t>
+  </si>
+  <si>
+    <t>rise-of-robotic-surgery-for-prostate-cancer</t>
+  </si>
+  <si>
+    <t>Tracking the Rise of Robotic Surgery for Prostate Cancer[#8550]</t>
+  </si>
+  <si>
+    <t>exercise-for-cancer-patients-and-survivors</t>
+  </si>
+  <si>
+    <t>Guidelines Urge Exercise for Cancer Patients, Survivors[#9300]</t>
+  </si>
+  <si>
+    <t>targeted-nanoparticle-tested-in-patients-with-cancer</t>
+  </si>
+  <si>
+    <t>Targeted Nanoparticle Tested in Patients with Cancer[#5778]</t>
+  </si>
+  <si>
+    <t>program-aims-to-improve-support-for-cancer-family-caregivers</t>
+  </si>
+  <si>
+    <t>Innovative Program Aims to Improve Support for Cancer Family Caregivers[#8097]</t>
   </si>
 </sst>
 </file>
@@ -3414,7 +3774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3427,6 +3787,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3772,11 +4135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3784,8 +4147,8 @@
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4792,7 +5155,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>129842</v>
       </c>
@@ -5404,7 +5767,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>497641</v>
       </c>
@@ -5965,7 +6328,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>198369</v>
       </c>
@@ -7920,7 +8283,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>576429</v>
       </c>
@@ -8090,7 +8453,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>125982</v>
       </c>
@@ -8668,7 +9031,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>583404</v>
       </c>
@@ -11248,6 +11611,992 @@
       </c>
       <c r="E439" s="3" t="s">
         <v>890</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>821969</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="3">
+        <v>822301</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>821964</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="3">
+        <v>822302</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>821967</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A445" s="3">
+        <v>675725</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>823928</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A447" s="3">
+        <v>759574</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>821972</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>821970</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>824933</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A451" s="3">
+        <v>824184</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>824935</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>824934</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>826390</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>819877</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>819878</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>819879</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>822287</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>822289</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>821962</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>822281</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>822283</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>822285</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>819882</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>822305</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>885546</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>819883</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>819880</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>819881</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>824909</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A471" s="3">
+        <v>702842</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>545310</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3">
+        <v>823710</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>826388</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3">
+        <v>819941</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>819785</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3">
+        <v>819940</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>819784</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3">
+        <v>826381</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>819939</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>823316</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>819948</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="3">
+        <v>822294</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="3">
+        <v>819947</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="3">
+        <v>822293</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A486" s="3">
+        <v>819946</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="3">
+        <v>819944</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="3">
+        <v>822290</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="3">
+        <v>826389</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="3">
+        <v>819943</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="3">
+        <v>850495</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>571449</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
+        <v>821975</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>821976</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3">
+        <v>821977</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>821979</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3">
+        <v>826233</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
